--- a/Financials/Quarterly/ANZBY_QTR_FIN.xlsx
+++ b/Financials/Quarterly/ANZBY_QTR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532659DE-FF90-413D-8E96-EC1891935912}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ANZBY" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>ANZBY</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,90 +689,96 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43373</v>
+      </c>
+      <c r="E7" s="2">
         <v>43190</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43008</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42825</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42643</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42460</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42277</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42094</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10774400</v>
+        <v>10950700</v>
       </c>
       <c r="E8" s="3">
-        <v>10662000</v>
+        <v>10505700</v>
       </c>
       <c r="F8" s="3">
-        <v>10467500</v>
+        <v>10396000</v>
       </c>
       <c r="G8" s="3">
-        <v>10783100</v>
+        <v>10206400</v>
       </c>
       <c r="H8" s="3">
-        <v>10949300</v>
+        <v>10514200</v>
       </c>
       <c r="I8" s="3">
-        <v>10979800</v>
+        <v>10676200</v>
       </c>
       <c r="J8" s="3">
+        <v>10705900</v>
+      </c>
+      <c r="K8" s="3">
         <v>11169900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10952200</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -765,8 +806,11 @@
       <c r="K9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -794,8 +838,11 @@
       <c r="K10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -807,8 +854,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -836,8 +884,11 @@
       <c r="K12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -865,8 +916,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -894,37 +948,43 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-267000</v>
+        <v>-440100</v>
       </c>
       <c r="E15" s="3">
-        <v>-252500</v>
+        <v>-260400</v>
       </c>
       <c r="F15" s="3">
-        <v>-270600</v>
+        <v>-246200</v>
       </c>
       <c r="G15" s="3">
-        <v>-267000</v>
+        <v>-263900</v>
       </c>
       <c r="H15" s="3">
-        <v>-662500</v>
+        <v>-260400</v>
       </c>
       <c r="I15" s="3">
-        <v>-349700</v>
+        <v>-645900</v>
       </c>
       <c r="J15" s="3">
+        <v>-341000</v>
+      </c>
+      <c r="K15" s="3">
         <v>-343200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-331600</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -933,66 +993,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5737300</v>
+        <v>6080300</v>
       </c>
       <c r="E17" s="3">
-        <v>5599500</v>
+        <v>5594200</v>
       </c>
       <c r="F17" s="3">
-        <v>5606000</v>
+        <v>5459800</v>
       </c>
       <c r="G17" s="3">
-        <v>6065300</v>
+        <v>5466100</v>
       </c>
       <c r="H17" s="3">
-        <v>6113900</v>
+        <v>5914000</v>
       </c>
       <c r="I17" s="3">
-        <v>6050800</v>
+        <v>5961400</v>
       </c>
       <c r="J17" s="3">
+        <v>5899800</v>
+      </c>
+      <c r="K17" s="3">
         <v>6349000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6182800</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5037100</v>
+        <v>4870400</v>
       </c>
       <c r="E18" s="3">
-        <v>5062500</v>
+        <v>4911500</v>
       </c>
       <c r="F18" s="3">
-        <v>4861500</v>
+        <v>4936200</v>
       </c>
       <c r="G18" s="3">
-        <v>4717900</v>
+        <v>4740300</v>
       </c>
       <c r="H18" s="3">
-        <v>4835400</v>
+        <v>4600200</v>
       </c>
       <c r="I18" s="3">
-        <v>4929000</v>
+        <v>4714800</v>
       </c>
       <c r="J18" s="3">
+        <v>4806000</v>
+      </c>
+      <c r="K18" s="3">
         <v>4820900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4769400</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1004,66 +1071,73 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1150800</v>
+        <v>-1659100</v>
       </c>
       <c r="E20" s="3">
-        <v>-1547700</v>
+        <v>-1122100</v>
       </c>
       <c r="F20" s="3">
-        <v>-1676900</v>
+        <v>-1509100</v>
       </c>
       <c r="G20" s="3">
-        <v>-1600700</v>
+        <v>-1635000</v>
       </c>
       <c r="H20" s="3">
-        <v>-2018600</v>
+        <v>-1560700</v>
       </c>
       <c r="I20" s="3">
-        <v>-1018000</v>
+        <v>-1968300</v>
       </c>
       <c r="J20" s="3">
+        <v>-992600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1089100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-715400</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4238200</v>
+        <v>3716500</v>
       </c>
       <c r="E21" s="3">
-        <v>3854400</v>
+        <v>4132500</v>
       </c>
       <c r="F21" s="3">
-        <v>3550400</v>
+        <v>3758200</v>
       </c>
       <c r="G21" s="3">
-        <v>2721700</v>
+        <v>3461800</v>
       </c>
       <c r="H21" s="3">
-        <v>3549600</v>
+        <v>2653800</v>
       </c>
       <c r="I21" s="3">
-        <v>3917500</v>
+        <v>3461100</v>
       </c>
       <c r="J21" s="3">
+        <v>3819800</v>
+      </c>
+      <c r="K21" s="3">
         <v>4043000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4101100</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1091,66 +1165,75 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3886300</v>
+        <v>3211300</v>
       </c>
       <c r="E23" s="3">
-        <v>3514800</v>
+        <v>3789400</v>
       </c>
       <c r="F23" s="3">
-        <v>3184700</v>
+        <v>3427100</v>
       </c>
       <c r="G23" s="3">
-        <v>3117200</v>
+        <v>3105200</v>
       </c>
       <c r="H23" s="3">
-        <v>2816800</v>
+        <v>3039400</v>
       </c>
       <c r="I23" s="3">
-        <v>3911000</v>
+        <v>2746500</v>
       </c>
       <c r="J23" s="3">
+        <v>3813400</v>
+      </c>
+      <c r="K23" s="3">
         <v>3731800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4053900</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1034700</v>
+        <v>960800</v>
       </c>
       <c r="E24" s="3">
-        <v>1035400</v>
+        <v>1008900</v>
       </c>
       <c r="F24" s="3">
-        <v>1049900</v>
+        <v>1009600</v>
       </c>
       <c r="G24" s="3">
-        <v>956300</v>
+        <v>1023800</v>
       </c>
       <c r="H24" s="3">
-        <v>827200</v>
+        <v>932500</v>
       </c>
       <c r="I24" s="3">
-        <v>1013700</v>
+        <v>806600</v>
       </c>
       <c r="J24" s="3">
+        <v>988400</v>
+      </c>
+      <c r="K24" s="3">
         <v>1182000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1235000</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1178,66 +1261,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2851600</v>
+        <v>2250600</v>
       </c>
       <c r="E26" s="3">
-        <v>2479400</v>
+        <v>2780500</v>
       </c>
       <c r="F26" s="3">
-        <v>2134700</v>
+        <v>2417500</v>
       </c>
       <c r="G26" s="3">
-        <v>2160800</v>
+        <v>2081500</v>
       </c>
       <c r="H26" s="3">
-        <v>1989600</v>
+        <v>2106900</v>
       </c>
       <c r="I26" s="3">
-        <v>2897300</v>
+        <v>1940000</v>
       </c>
       <c r="J26" s="3">
+        <v>2825000</v>
+      </c>
+      <c r="K26" s="3">
         <v>2549800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2819000</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2846500</v>
+        <v>2244200</v>
       </c>
       <c r="E27" s="3">
-        <v>2474300</v>
+        <v>2775500</v>
       </c>
       <c r="F27" s="3">
-        <v>2128900</v>
+        <v>2412600</v>
       </c>
       <c r="G27" s="3">
-        <v>2155800</v>
+        <v>2075800</v>
       </c>
       <c r="H27" s="3">
-        <v>1986700</v>
+        <v>2102000</v>
       </c>
       <c r="I27" s="3">
-        <v>2893000</v>
+        <v>1937100</v>
       </c>
       <c r="J27" s="3">
+        <v>2820800</v>
+      </c>
+      <c r="K27" s="3">
         <v>2543200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2812400</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1265,22 +1357,25 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-435400</v>
+        <v>-67200</v>
       </c>
       <c r="E29" s="3">
-        <v>61700</v>
+        <v>-424500</v>
       </c>
       <c r="F29" s="3">
-        <v>-16700</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
+        <v>60100</v>
+      </c>
+      <c r="G29" s="3">
+        <v>-16300</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>5</v>
@@ -1294,8 +1389,11 @@
       <c r="K29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1323,8 +1421,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1352,66 +1453,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1150800</v>
+        <v>1659100</v>
       </c>
       <c r="E32" s="3">
-        <v>1547700</v>
+        <v>1122100</v>
       </c>
       <c r="F32" s="3">
-        <v>1676900</v>
+        <v>1509100</v>
       </c>
       <c r="G32" s="3">
-        <v>1600700</v>
+        <v>1635000</v>
       </c>
       <c r="H32" s="3">
-        <v>2018600</v>
+        <v>1560700</v>
       </c>
       <c r="I32" s="3">
-        <v>1018000</v>
+        <v>1968300</v>
       </c>
       <c r="J32" s="3">
+        <v>992600</v>
+      </c>
+      <c r="K32" s="3">
         <v>1089100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>715400</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2411200</v>
+        <v>2177000</v>
       </c>
       <c r="E33" s="3">
-        <v>2536000</v>
+        <v>2351000</v>
       </c>
       <c r="F33" s="3">
-        <v>2112200</v>
+        <v>2472700</v>
       </c>
       <c r="G33" s="3">
-        <v>2155800</v>
+        <v>2059500</v>
       </c>
       <c r="H33" s="3">
-        <v>1986700</v>
+        <v>2102000</v>
       </c>
       <c r="I33" s="3">
-        <v>2893000</v>
+        <v>1937100</v>
       </c>
       <c r="J33" s="3">
+        <v>2820800</v>
+      </c>
+      <c r="K33" s="3">
         <v>2543200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2812400</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1439,71 +1549,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2411200</v>
+        <v>2177000</v>
       </c>
       <c r="E35" s="3">
-        <v>2536000</v>
+        <v>2351000</v>
       </c>
       <c r="F35" s="3">
-        <v>2112200</v>
+        <v>2472700</v>
       </c>
       <c r="G35" s="3">
-        <v>2155800</v>
+        <v>2059500</v>
       </c>
       <c r="H35" s="3">
-        <v>1986700</v>
+        <v>2102000</v>
       </c>
       <c r="I35" s="3">
-        <v>2893000</v>
+        <v>1937100</v>
       </c>
       <c r="J35" s="3">
+        <v>2820800</v>
+      </c>
+      <c r="K35" s="3">
         <v>2543200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2812400</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43373</v>
+      </c>
+      <c r="E38" s="2">
         <v>43190</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43008</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42825</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42643</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42460</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42277</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42094</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1515,8 +1634,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1528,66 +1648,73 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>69314400</v>
+        <v>67140300</v>
       </c>
       <c r="E41" s="3">
-        <v>60160900</v>
+        <v>67585400</v>
       </c>
       <c r="F41" s="3">
-        <v>63820900</v>
+        <v>58660200</v>
       </c>
       <c r="G41" s="3">
-        <v>58828000</v>
+        <v>62228900</v>
       </c>
       <c r="H41" s="3">
-        <v>62179600</v>
+        <v>57360600</v>
       </c>
       <c r="I41" s="3">
-        <v>60389500</v>
+        <v>60628500</v>
       </c>
       <c r="J41" s="3">
+        <v>58883100</v>
+      </c>
+      <c r="K41" s="3">
         <v>57442800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>45708400</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>92032200</v>
+        <v>82910500</v>
       </c>
       <c r="E42" s="3">
-        <v>83523800</v>
+        <v>89736500</v>
       </c>
       <c r="F42" s="3">
-        <v>86452300</v>
+        <v>81440300</v>
       </c>
       <c r="G42" s="3">
-        <v>106958500</v>
+        <v>84295800</v>
       </c>
       <c r="H42" s="3">
-        <v>110003100</v>
+        <v>104290500</v>
       </c>
       <c r="I42" s="3">
-        <v>104916000</v>
+        <v>107259100</v>
       </c>
       <c r="J42" s="3">
+        <v>102298800</v>
+      </c>
+      <c r="K42" s="3">
         <v>98444300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>80918900</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1615,8 +1742,11 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1644,8 +1774,11 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1673,8 +1806,11 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1702,95 +1838,107 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1800200</v>
+        <v>1806200</v>
       </c>
       <c r="E47" s="3">
-        <v>1631100</v>
+        <v>1755300</v>
       </c>
       <c r="F47" s="3">
-        <v>1658700</v>
+        <v>1590500</v>
       </c>
       <c r="G47" s="3">
-        <v>3099800</v>
+        <v>1617300</v>
       </c>
       <c r="H47" s="3">
-        <v>3057000</v>
+        <v>3022400</v>
       </c>
       <c r="I47" s="3">
-        <v>3947300</v>
+        <v>2980700</v>
       </c>
       <c r="J47" s="3">
+        <v>3848800</v>
+      </c>
+      <c r="K47" s="3">
         <v>3856600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3324700</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1372800</v>
+        <v>1296800</v>
       </c>
       <c r="E48" s="3">
-        <v>1425800</v>
+        <v>1338600</v>
       </c>
       <c r="F48" s="3">
-        <v>1436000</v>
+        <v>1390200</v>
       </c>
       <c r="G48" s="3">
-        <v>1599900</v>
+        <v>1400100</v>
       </c>
       <c r="H48" s="3">
-        <v>1587600</v>
+        <v>1560000</v>
       </c>
       <c r="I48" s="3">
-        <v>1611600</v>
+        <v>1548000</v>
       </c>
       <c r="J48" s="3">
+        <v>1571400</v>
+      </c>
+      <c r="K48" s="3">
         <v>1598500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1582500</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3873300</v>
+        <v>3488000</v>
       </c>
       <c r="E49" s="3">
-        <v>5057400</v>
+        <v>3776600</v>
       </c>
       <c r="F49" s="3">
-        <v>5117700</v>
+        <v>4931300</v>
       </c>
       <c r="G49" s="3">
-        <v>5566800</v>
+        <v>4990000</v>
       </c>
       <c r="H49" s="3">
-        <v>5503700</v>
+        <v>5427900</v>
       </c>
       <c r="I49" s="3">
-        <v>6031200</v>
+        <v>5366400</v>
       </c>
       <c r="J49" s="3">
+        <v>5880700</v>
+      </c>
+      <c r="K49" s="3">
         <v>6083400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5768500</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1818,8 +1966,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1847,37 +1998,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>33463200</v>
+        <v>32649700</v>
       </c>
       <c r="E52" s="3">
-        <v>6272800</v>
+        <v>32628500</v>
       </c>
       <c r="F52" s="3">
-        <v>10678700</v>
+        <v>6116300</v>
       </c>
       <c r="G52" s="3">
-        <v>452000</v>
+        <v>10412300</v>
       </c>
       <c r="H52" s="3">
-        <v>419400</v>
+        <v>440800</v>
       </c>
       <c r="I52" s="3">
-        <v>6143700</v>
+        <v>408900</v>
       </c>
       <c r="J52" s="3">
+        <v>5990400</v>
+      </c>
+      <c r="K52" s="3">
         <v>117500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>302600</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1905,37 +2062,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>678520200</v>
+        <v>666906500</v>
       </c>
       <c r="E54" s="3">
-        <v>651099700</v>
+        <v>661594600</v>
       </c>
       <c r="F54" s="3">
-        <v>650508400</v>
+        <v>634858100</v>
       </c>
       <c r="G54" s="3">
-        <v>663828900</v>
+        <v>634281500</v>
       </c>
       <c r="H54" s="3">
-        <v>649613700</v>
+        <v>647269800</v>
       </c>
       <c r="I54" s="3">
-        <v>645711400</v>
+        <v>633409200</v>
       </c>
       <c r="J54" s="3">
+        <v>629604300</v>
+      </c>
+      <c r="K54" s="3">
         <v>624079100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>560230000</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1947,8 +2110,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1960,37 +2124,41 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5399900</v>
+        <v>4802500</v>
       </c>
       <c r="E57" s="3">
-        <v>6058800</v>
+        <v>5265200</v>
       </c>
       <c r="F57" s="3">
-        <v>5844000</v>
+        <v>5907600</v>
       </c>
       <c r="G57" s="3">
-        <v>6432400</v>
+        <v>5698200</v>
       </c>
       <c r="H57" s="3">
-        <v>6712500</v>
+        <v>6272000</v>
       </c>
       <c r="I57" s="3">
-        <v>7521600</v>
+        <v>6545100</v>
       </c>
       <c r="J57" s="3">
+        <v>7333900</v>
+      </c>
+      <c r="K57" s="3">
         <v>7980900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7970000</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2018,37 +2186,43 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>269200</v>
+        <v>212300</v>
       </c>
       <c r="E59" s="3">
-        <v>174900</v>
+        <v>262500</v>
       </c>
       <c r="F59" s="3">
-        <v>134200</v>
+        <v>170500</v>
       </c>
       <c r="G59" s="3">
-        <v>136400</v>
+        <v>130900</v>
       </c>
       <c r="H59" s="3">
-        <v>93600</v>
+        <v>133000</v>
       </c>
       <c r="I59" s="3">
-        <v>193700</v>
+        <v>91300</v>
       </c>
       <c r="J59" s="3">
+        <v>188900</v>
+      </c>
+      <c r="K59" s="3">
         <v>89200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>325800</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2076,66 +2250,75 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>83325000</v>
+        <v>85734100</v>
       </c>
       <c r="E61" s="3">
-        <v>78345200</v>
+        <v>81246500</v>
       </c>
       <c r="F61" s="3">
-        <v>80009700</v>
+        <v>76390900</v>
       </c>
       <c r="G61" s="3">
-        <v>83126200</v>
+        <v>78013900</v>
       </c>
       <c r="H61" s="3">
-        <v>73336400</v>
+        <v>81052600</v>
       </c>
       <c r="I61" s="3">
-        <v>81509600</v>
+        <v>71507000</v>
       </c>
       <c r="J61" s="3">
+        <v>79476300</v>
+      </c>
+      <c r="K61" s="3">
         <v>75264300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>69006700</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>32826900</v>
+        <v>33406000</v>
       </c>
       <c r="E62" s="3">
-        <v>1124700</v>
+        <v>32008000</v>
       </c>
       <c r="F62" s="3">
-        <v>1131200</v>
+        <v>1096600</v>
       </c>
       <c r="G62" s="3">
-        <v>1042000</v>
+        <v>1103000</v>
       </c>
       <c r="H62" s="3">
-        <v>1079700</v>
+        <v>1016000</v>
       </c>
       <c r="I62" s="3">
-        <v>960000</v>
+        <v>1052800</v>
       </c>
       <c r="J62" s="3">
+        <v>936000</v>
+      </c>
+      <c r="K62" s="3">
         <v>1052100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>885200</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2163,8 +2346,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2192,8 +2378,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2221,37 +2410,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>635438400</v>
+        <v>624992100</v>
       </c>
       <c r="E66" s="3">
-        <v>608319100</v>
+        <v>619587500</v>
       </c>
       <c r="F66" s="3">
-        <v>608575200</v>
+        <v>593144700</v>
       </c>
       <c r="G66" s="3">
-        <v>621876200</v>
+        <v>593394400</v>
       </c>
       <c r="H66" s="3">
-        <v>608716700</v>
+        <v>606363600</v>
       </c>
       <c r="I66" s="3">
-        <v>604173000</v>
+        <v>593532400</v>
       </c>
       <c r="J66" s="3">
+        <v>589102000</v>
+      </c>
+      <c r="K66" s="3">
         <v>586379900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>524525400</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2263,8 +2458,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2292,8 +2488,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2321,8 +2520,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2348,10 +2550,13 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>632000</v>
       </c>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2379,37 +2584,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>22455900</v>
+        <v>22488600</v>
       </c>
       <c r="E72" s="3">
-        <v>21694000</v>
+        <v>21895700</v>
       </c>
       <c r="F72" s="3">
-        <v>20813100</v>
+        <v>21152800</v>
       </c>
       <c r="G72" s="3">
-        <v>20339300</v>
+        <v>20293900</v>
       </c>
       <c r="H72" s="3">
-        <v>19886500</v>
+        <v>19831900</v>
       </c>
       <c r="I72" s="3">
-        <v>19848100</v>
+        <v>19390500</v>
       </c>
       <c r="J72" s="3">
+        <v>19353000</v>
+      </c>
+      <c r="K72" s="3">
         <v>18613800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>17836000</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2437,8 +2648,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2466,8 +2680,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2495,37 +2712,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>43081800</v>
+        <v>41914400</v>
       </c>
       <c r="E76" s="3">
-        <v>42780700</v>
+        <v>42007100</v>
       </c>
       <c r="F76" s="3">
-        <v>41933100</v>
+        <v>41713500</v>
       </c>
       <c r="G76" s="3">
-        <v>41952700</v>
+        <v>40887100</v>
       </c>
       <c r="H76" s="3">
-        <v>40897000</v>
+        <v>40906200</v>
       </c>
       <c r="I76" s="3">
-        <v>41538400</v>
+        <v>39876800</v>
       </c>
       <c r="J76" s="3">
+        <v>40502300</v>
+      </c>
+      <c r="K76" s="3">
         <v>37699300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>35072600</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2553,71 +2776,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43373</v>
+      </c>
+      <c r="E80" s="2">
         <v>43190</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43008</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42825</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42643</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42460</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42277</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42094</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2411200</v>
+        <v>2177000</v>
       </c>
       <c r="E81" s="3">
-        <v>2536000</v>
+        <v>2351000</v>
       </c>
       <c r="F81" s="3">
-        <v>2112200</v>
+        <v>2472700</v>
       </c>
       <c r="G81" s="3">
-        <v>2155800</v>
+        <v>2059500</v>
       </c>
       <c r="H81" s="3">
-        <v>1986700</v>
+        <v>2102000</v>
       </c>
       <c r="I81" s="3">
-        <v>2893000</v>
+        <v>1937100</v>
       </c>
       <c r="J81" s="3">
+        <v>2820800</v>
+      </c>
+      <c r="K81" s="3">
         <v>2543200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2812400</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2629,22 +2861,23 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>351900</v>
+        <v>505200</v>
       </c>
       <c r="E83" s="3">
-        <v>339600</v>
+        <v>343100</v>
       </c>
       <c r="F83" s="3">
-        <v>365700</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>5</v>
+        <v>331100</v>
+      </c>
+      <c r="G83" s="3">
+        <v>356600</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>5</v>
@@ -2658,8 +2891,11 @@
       <c r="K83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2687,8 +2923,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2716,8 +2955,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2745,8 +2987,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2774,8 +3019,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2803,37 +3051,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5914400</v>
+        <v>1708600</v>
       </c>
       <c r="E89" s="3">
-        <v>6394000</v>
+        <v>5766800</v>
       </c>
       <c r="F89" s="3">
-        <v>11000100</v>
+        <v>6287600</v>
       </c>
       <c r="G89" s="3">
-        <v>-431000</v>
+        <v>10725700</v>
       </c>
       <c r="H89" s="3">
-        <v>8297200</v>
+        <v>-420300</v>
       </c>
       <c r="I89" s="3">
-        <v>1531700</v>
+        <v>8090300</v>
       </c>
       <c r="J89" s="3">
+        <v>1493500</v>
+      </c>
+      <c r="K89" s="3">
         <v>14051200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2762400</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2845,8 +3099,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2856,26 +3111,29 @@
       <c r="E91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F91" s="3">
-        <v>-84900</v>
+      <c r="F91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G91" s="3">
-        <v>-109600</v>
+        <v>-82800</v>
       </c>
       <c r="H91" s="3">
-        <v>-135000</v>
+        <v>-106800</v>
       </c>
       <c r="I91" s="3">
-        <v>-146600</v>
+        <v>-131600</v>
       </c>
       <c r="J91" s="3">
+        <v>-142900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-86300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-341000</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2903,8 +3161,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2932,37 +3193,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>1637700</v>
+        <v>-1479400</v>
       </c>
       <c r="E94" s="3">
-        <v>-8064300</v>
+        <v>1596800</v>
       </c>
       <c r="F94" s="3">
-        <v>-1245100</v>
+        <v>-7863200</v>
       </c>
       <c r="G94" s="3">
-        <v>-9591700</v>
+        <v>-1214100</v>
       </c>
       <c r="H94" s="3">
-        <v>-864200</v>
+        <v>-9352400</v>
       </c>
       <c r="I94" s="3">
-        <v>-3361000</v>
+        <v>-842600</v>
       </c>
       <c r="J94" s="3">
+        <v>-3277100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3732500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1581100</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2974,37 +3241,41 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1526700</v>
+        <v>-1739700</v>
       </c>
       <c r="E96" s="3">
-        <v>-1540400</v>
+        <v>-1488600</v>
       </c>
       <c r="F96" s="3">
-        <v>-1514300</v>
+        <v>-1502000</v>
       </c>
       <c r="G96" s="3">
-        <v>-1508500</v>
+        <v>-1476600</v>
       </c>
       <c r="H96" s="3">
-        <v>-1803100</v>
+        <v>-1470900</v>
       </c>
       <c r="I96" s="3">
-        <v>-1054300</v>
+        <v>-1758100</v>
       </c>
       <c r="J96" s="3">
+        <v>-1028000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1676100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1347400</v>
       </c>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3032,8 +3303,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3061,8 +3335,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3090,91 +3367,103 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1102900</v>
+        <v>778300</v>
       </c>
       <c r="E100" s="3">
-        <v>-2784100</v>
+        <v>1075400</v>
       </c>
       <c r="F100" s="3">
-        <v>-2053400</v>
+        <v>-2714700</v>
       </c>
       <c r="G100" s="3">
-        <v>7041900</v>
+        <v>-2002200</v>
       </c>
       <c r="H100" s="3">
-        <v>-5621200</v>
+        <v>6866300</v>
       </c>
       <c r="I100" s="3">
-        <v>2282700</v>
+        <v>-5481000</v>
       </c>
       <c r="J100" s="3">
+        <v>2225800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-800300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2133300</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1523800</v>
+        <v>1035800</v>
       </c>
       <c r="E101" s="3">
-        <v>-724100</v>
+        <v>1485800</v>
       </c>
       <c r="F101" s="3">
-        <v>-1196500</v>
+        <v>-706100</v>
       </c>
       <c r="G101" s="3">
-        <v>1173300</v>
+        <v>-1166700</v>
       </c>
       <c r="H101" s="3">
-        <v>-2223200</v>
+        <v>1144000</v>
       </c>
       <c r="I101" s="3">
-        <v>2315400</v>
+        <v>-2167800</v>
       </c>
       <c r="J101" s="3">
+        <v>2257600</v>
+      </c>
+      <c r="K101" s="3">
         <v>2985800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>504300</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>10178700</v>
+        <v>2043300</v>
       </c>
       <c r="E102" s="3">
-        <v>-5178600</v>
+        <v>9924800</v>
       </c>
       <c r="F102" s="3">
-        <v>6505000</v>
+        <v>-5049400</v>
       </c>
       <c r="G102" s="3">
-        <v>-1807500</v>
+        <v>6342700</v>
       </c>
       <c r="H102" s="3">
-        <v>-411400</v>
+        <v>-1762400</v>
       </c>
       <c r="I102" s="3">
-        <v>2768900</v>
+        <v>-401200</v>
       </c>
       <c r="J102" s="3">
+        <v>2699800</v>
+      </c>
+      <c r="K102" s="3">
         <v>12504300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1705900</v>
       </c>
     </row>

--- a/Financials/Quarterly/ANZBY_QTR_FIN.xlsx
+++ b/Financials/Quarterly/ANZBY_QTR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532659DE-FF90-413D-8E96-EC1891935912}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="ANZBY" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>ANZBY</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,96 +654,108 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43555</v>
+      </c>
+      <c r="F7" s="2">
         <v>43373</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43190</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43008</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>42825</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>42643</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>42460</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>42277</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>42094</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10950700</v>
+        <v>10167000</v>
       </c>
       <c r="E8" s="3">
-        <v>10505700</v>
+        <v>10747800</v>
       </c>
       <c r="F8" s="3">
-        <v>10396000</v>
+        <v>10416700</v>
       </c>
       <c r="G8" s="3">
-        <v>10206400</v>
+        <v>9993400</v>
       </c>
       <c r="H8" s="3">
-        <v>10514200</v>
+        <v>9889100</v>
       </c>
       <c r="I8" s="3">
+        <v>9708700</v>
+      </c>
+      <c r="J8" s="3">
+        <v>10001500</v>
+      </c>
+      <c r="K8" s="3">
         <v>10676200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>10705900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>11169900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>10952200</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -809,8 +786,14 @@
       <c r="L9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -841,8 +824,14 @@
       <c r="L10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -855,8 +844,10 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -887,8 +878,14 @@
       <c r="L12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -919,8 +916,14 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -951,40 +954,52 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-440100</v>
+        <v>-240300</v>
       </c>
       <c r="E15" s="3">
-        <v>-260400</v>
+        <v>-226800</v>
       </c>
       <c r="F15" s="3">
-        <v>-246200</v>
+        <v>-418600</v>
       </c>
       <c r="G15" s="3">
-        <v>-263900</v>
+        <v>-247700</v>
       </c>
       <c r="H15" s="3">
-        <v>-260400</v>
+        <v>-234200</v>
       </c>
       <c r="I15" s="3">
+        <v>-251000</v>
+      </c>
+      <c r="J15" s="3">
+        <v>-247700</v>
+      </c>
+      <c r="K15" s="3">
         <v>-645900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>-341000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>-343200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>-331600</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -994,72 +1009,86 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6080300</v>
+        <v>5699600</v>
       </c>
       <c r="E17" s="3">
-        <v>5594200</v>
+        <v>6099400</v>
       </c>
       <c r="F17" s="3">
-        <v>5459800</v>
+        <v>5783800</v>
       </c>
       <c r="G17" s="3">
-        <v>5466100</v>
+        <v>5321400</v>
       </c>
       <c r="H17" s="3">
-        <v>5914000</v>
+        <v>5193500</v>
       </c>
       <c r="I17" s="3">
+        <v>5199600</v>
+      </c>
+      <c r="J17" s="3">
+        <v>5625600</v>
+      </c>
+      <c r="K17" s="3">
         <v>5961400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>5899800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>6349000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>6182800</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4870400</v>
+        <v>4467400</v>
       </c>
       <c r="E18" s="3">
-        <v>4911500</v>
+        <v>4648400</v>
       </c>
       <c r="F18" s="3">
-        <v>4936200</v>
+        <v>4632900</v>
       </c>
       <c r="G18" s="3">
-        <v>4740300</v>
+        <v>4672000</v>
       </c>
       <c r="H18" s="3">
-        <v>4600200</v>
+        <v>4695500</v>
       </c>
       <c r="I18" s="3">
+        <v>4509100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>4375800</v>
+      </c>
+      <c r="K18" s="3">
         <v>4714800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>4806000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>4820900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>4769400</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1072,72 +1101,86 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1659100</v>
+        <v>-1516900</v>
       </c>
       <c r="E20" s="3">
-        <v>-1122100</v>
+        <v>-1595700</v>
       </c>
       <c r="F20" s="3">
-        <v>-1509100</v>
+        <v>-1578200</v>
       </c>
       <c r="G20" s="3">
-        <v>-1635000</v>
+        <v>-1067400</v>
       </c>
       <c r="H20" s="3">
-        <v>-1560700</v>
+        <v>-1435500</v>
       </c>
       <c r="I20" s="3">
+        <v>-1555300</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-1484600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1968300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-992600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-1089100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-715400</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3716500</v>
+        <v>3248600</v>
       </c>
       <c r="E21" s="3">
-        <v>4132500</v>
+        <v>3340800</v>
       </c>
       <c r="F21" s="3">
-        <v>3758200</v>
+        <v>3535300</v>
       </c>
       <c r="G21" s="3">
-        <v>3461800</v>
+        <v>3931000</v>
       </c>
       <c r="H21" s="3">
-        <v>2653800</v>
+        <v>3575000</v>
       </c>
       <c r="I21" s="3">
+        <v>3293000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>2524400</v>
+      </c>
+      <c r="K21" s="3">
         <v>3461100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>3819800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>4043000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>4101100</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1168,72 +1211,90 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3211300</v>
+        <v>2950400</v>
       </c>
       <c r="E23" s="3">
-        <v>3789400</v>
+        <v>3052700</v>
       </c>
       <c r="F23" s="3">
-        <v>3427100</v>
+        <v>3054700</v>
       </c>
       <c r="G23" s="3">
-        <v>3105200</v>
+        <v>3604600</v>
       </c>
       <c r="H23" s="3">
-        <v>3039400</v>
+        <v>3260000</v>
       </c>
       <c r="I23" s="3">
+        <v>2953800</v>
+      </c>
+      <c r="J23" s="3">
+        <v>2891200</v>
+      </c>
+      <c r="K23" s="3">
         <v>2746500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>3813400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>3731800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>4053900</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>960800</v>
+        <v>891700</v>
       </c>
       <c r="E24" s="3">
-        <v>1008900</v>
+        <v>864100</v>
       </c>
       <c r="F24" s="3">
-        <v>1009600</v>
+        <v>913900</v>
       </c>
       <c r="G24" s="3">
-        <v>1023800</v>
+        <v>959700</v>
       </c>
       <c r="H24" s="3">
-        <v>932500</v>
+        <v>960400</v>
       </c>
       <c r="I24" s="3">
+        <v>973800</v>
+      </c>
+      <c r="J24" s="3">
+        <v>887000</v>
+      </c>
+      <c r="K24" s="3">
         <v>806600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>988400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>1182000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>1235000</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1264,72 +1325,90 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2250600</v>
+        <v>2058700</v>
       </c>
       <c r="E26" s="3">
-        <v>2780500</v>
+        <v>2188600</v>
       </c>
       <c r="F26" s="3">
-        <v>2417500</v>
+        <v>2140800</v>
       </c>
       <c r="G26" s="3">
-        <v>2081500</v>
+        <v>2644900</v>
       </c>
       <c r="H26" s="3">
-        <v>2106900</v>
+        <v>2299600</v>
       </c>
       <c r="I26" s="3">
+        <v>1980000</v>
+      </c>
+      <c r="J26" s="3">
+        <v>2004200</v>
+      </c>
+      <c r="K26" s="3">
         <v>1940000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>2825000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>2549800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>2819000</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2244200</v>
+        <v>2054700</v>
       </c>
       <c r="E27" s="3">
-        <v>2775500</v>
+        <v>2182500</v>
       </c>
       <c r="F27" s="3">
-        <v>2412600</v>
+        <v>2134800</v>
       </c>
       <c r="G27" s="3">
-        <v>2075800</v>
+        <v>2640200</v>
       </c>
       <c r="H27" s="3">
-        <v>2102000</v>
+        <v>2294900</v>
       </c>
       <c r="I27" s="3">
+        <v>1974600</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1999500</v>
+      </c>
+      <c r="K27" s="3">
         <v>1937100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>2820800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>2543200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>2812400</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1360,28 +1439,34 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-67200</v>
+        <v>-183700</v>
       </c>
       <c r="E29" s="3">
-        <v>-424500</v>
+        <v>-47100</v>
       </c>
       <c r="F29" s="3">
-        <v>60100</v>
+        <v>-63900</v>
       </c>
       <c r="G29" s="3">
-        <v>-16300</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
+        <v>-403800</v>
+      </c>
+      <c r="H29" s="3">
+        <v>57200</v>
+      </c>
+      <c r="I29" s="3">
+        <v>-15500</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>5</v>
@@ -1392,8 +1477,14 @@
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1424,8 +1515,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1456,72 +1553,90 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1659100</v>
+        <v>1516900</v>
       </c>
       <c r="E32" s="3">
-        <v>1122100</v>
+        <v>1595700</v>
       </c>
       <c r="F32" s="3">
-        <v>1509100</v>
+        <v>1578200</v>
       </c>
       <c r="G32" s="3">
-        <v>1635000</v>
+        <v>1067400</v>
       </c>
       <c r="H32" s="3">
-        <v>1560700</v>
+        <v>1435500</v>
       </c>
       <c r="I32" s="3">
+        <v>1555300</v>
+      </c>
+      <c r="J32" s="3">
+        <v>1484600</v>
+      </c>
+      <c r="K32" s="3">
         <v>1968300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>992600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>1089100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>715400</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2177000</v>
+        <v>1870900</v>
       </c>
       <c r="E33" s="3">
-        <v>2351000</v>
+        <v>2135400</v>
       </c>
       <c r="F33" s="3">
-        <v>2472700</v>
+        <v>2070800</v>
       </c>
       <c r="G33" s="3">
-        <v>2059500</v>
+        <v>2236400</v>
       </c>
       <c r="H33" s="3">
-        <v>2102000</v>
+        <v>2352100</v>
       </c>
       <c r="I33" s="3">
+        <v>1959100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1999500</v>
+      </c>
+      <c r="K33" s="3">
         <v>1937100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>2820800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>2543200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>2812400</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1552,77 +1667,95 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2177000</v>
+        <v>1870900</v>
       </c>
       <c r="E35" s="3">
-        <v>2351000</v>
+        <v>2135400</v>
       </c>
       <c r="F35" s="3">
-        <v>2472700</v>
+        <v>2070800</v>
       </c>
       <c r="G35" s="3">
-        <v>2059500</v>
+        <v>2236400</v>
       </c>
       <c r="H35" s="3">
-        <v>2102000</v>
+        <v>2352100</v>
       </c>
       <c r="I35" s="3">
+        <v>1959100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1999500</v>
+      </c>
+      <c r="K35" s="3">
         <v>1937100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>2820800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>2543200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>2812400</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43555</v>
+      </c>
+      <c r="F38" s="2">
         <v>43373</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43190</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43008</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>42825</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>42643</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>42460</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>42277</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>42094</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1635,8 +1768,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1649,72 +1784,86 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>67140300</v>
+        <v>62929500</v>
       </c>
       <c r="E41" s="3">
-        <v>67585400</v>
+        <v>71650300</v>
       </c>
       <c r="F41" s="3">
-        <v>58660200</v>
+        <v>63866400</v>
       </c>
       <c r="G41" s="3">
-        <v>62228900</v>
+        <v>64289700</v>
       </c>
       <c r="H41" s="3">
-        <v>57360600</v>
+        <v>55799800</v>
       </c>
       <c r="I41" s="3">
+        <v>59194400</v>
+      </c>
+      <c r="J41" s="3">
+        <v>54563500</v>
+      </c>
+      <c r="K41" s="3">
         <v>60628500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>58883100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>57442800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>45708400</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>82910500</v>
+        <v>120360700</v>
       </c>
       <c r="E42" s="3">
-        <v>89736500</v>
+        <v>90243900</v>
       </c>
       <c r="F42" s="3">
-        <v>81440300</v>
+        <v>78867500</v>
       </c>
       <c r="G42" s="3">
-        <v>84295800</v>
+        <v>85360600</v>
       </c>
       <c r="H42" s="3">
-        <v>104290500</v>
+        <v>77469000</v>
       </c>
       <c r="I42" s="3">
+        <v>80185300</v>
+      </c>
+      <c r="J42" s="3">
+        <v>99204900</v>
+      </c>
+      <c r="K42" s="3">
         <v>107259100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>102298800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>98444300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>80918900</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1745,8 +1894,14 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1777,8 +1932,14 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1809,8 +1970,14 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1841,104 +2008,128 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1806200</v>
+        <v>1990100</v>
       </c>
       <c r="E47" s="3">
-        <v>1755300</v>
+        <v>1842000</v>
       </c>
       <c r="F47" s="3">
-        <v>1590500</v>
+        <v>1718200</v>
       </c>
       <c r="G47" s="3">
-        <v>1617300</v>
+        <v>1669700</v>
       </c>
       <c r="H47" s="3">
-        <v>3022400</v>
+        <v>1512900</v>
       </c>
       <c r="I47" s="3">
+        <v>1538500</v>
+      </c>
+      <c r="J47" s="3">
+        <v>2875100</v>
+      </c>
+      <c r="K47" s="3">
         <v>2980700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>3848800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>3856600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>3324700</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1296800</v>
+        <v>1294900</v>
       </c>
       <c r="E48" s="3">
-        <v>1338600</v>
+        <v>1253800</v>
       </c>
       <c r="F48" s="3">
-        <v>1390200</v>
+        <v>1233600</v>
       </c>
       <c r="G48" s="3">
-        <v>1400100</v>
+        <v>1273300</v>
       </c>
       <c r="H48" s="3">
-        <v>1560000</v>
+        <v>1322400</v>
       </c>
       <c r="I48" s="3">
+        <v>1331900</v>
+      </c>
+      <c r="J48" s="3">
+        <v>1484000</v>
+      </c>
+      <c r="K48" s="3">
         <v>1548000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1571400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1598500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1582500</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3488000</v>
+        <v>3271500</v>
       </c>
       <c r="E49" s="3">
-        <v>3776600</v>
+        <v>3376400</v>
       </c>
       <c r="F49" s="3">
-        <v>4931300</v>
+        <v>3317900</v>
       </c>
       <c r="G49" s="3">
-        <v>4990000</v>
+        <v>3592500</v>
       </c>
       <c r="H49" s="3">
-        <v>5427900</v>
+        <v>4690800</v>
       </c>
       <c r="I49" s="3">
+        <v>4746700</v>
+      </c>
+      <c r="J49" s="3">
+        <v>5163300</v>
+      </c>
+      <c r="K49" s="3">
         <v>5366400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>5880700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>6083400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>5768500</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1969,8 +2160,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2001,40 +2198,52 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>32649700</v>
+        <v>2144900</v>
       </c>
       <c r="E52" s="3">
-        <v>32628500</v>
+        <v>30079700</v>
       </c>
       <c r="F52" s="3">
-        <v>6116300</v>
+        <v>31057600</v>
       </c>
       <c r="G52" s="3">
-        <v>10412300</v>
+        <v>31037400</v>
       </c>
       <c r="H52" s="3">
-        <v>440800</v>
+        <v>5818100</v>
       </c>
       <c r="I52" s="3">
+        <v>9904500</v>
+      </c>
+      <c r="J52" s="3">
+        <v>419300</v>
+      </c>
+      <c r="K52" s="3">
         <v>408900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>5990400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>117500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>302600</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2065,40 +2274,52 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>666906500</v>
+        <v>660305200</v>
       </c>
       <c r="E54" s="3">
-        <v>661594600</v>
+        <v>659704200</v>
       </c>
       <c r="F54" s="3">
-        <v>634858100</v>
+        <v>634761500</v>
       </c>
       <c r="G54" s="3">
-        <v>634281500</v>
+        <v>629705900</v>
       </c>
       <c r="H54" s="3">
-        <v>647269800</v>
+        <v>603900400</v>
       </c>
       <c r="I54" s="3">
+        <v>603351900</v>
+      </c>
+      <c r="J54" s="3">
+        <v>615706800</v>
+      </c>
+      <c r="K54" s="3">
         <v>633409200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>629604300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>624079100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>560230000</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2111,8 +2332,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2125,40 +2348,48 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4802500</v>
+        <v>5362500</v>
       </c>
       <c r="E57" s="3">
-        <v>5265200</v>
+        <v>5142400</v>
       </c>
       <c r="F57" s="3">
-        <v>5907600</v>
+        <v>4639700</v>
       </c>
       <c r="G57" s="3">
-        <v>5698200</v>
+        <v>5075800</v>
       </c>
       <c r="H57" s="3">
-        <v>6272000</v>
+        <v>5619600</v>
       </c>
       <c r="I57" s="3">
+        <v>5420300</v>
+      </c>
+      <c r="J57" s="3">
+        <v>5966100</v>
+      </c>
+      <c r="K57" s="3">
         <v>6545100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>7333900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>7980900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>7970000</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2189,40 +2420,52 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>212300</v>
+        <v>175000</v>
       </c>
       <c r="E59" s="3">
-        <v>262500</v>
+        <v>107000</v>
       </c>
       <c r="F59" s="3">
-        <v>170500</v>
+        <v>201900</v>
       </c>
       <c r="G59" s="3">
-        <v>130900</v>
+        <v>249700</v>
       </c>
       <c r="H59" s="3">
-        <v>133000</v>
+        <v>162200</v>
       </c>
       <c r="I59" s="3">
+        <v>124500</v>
+      </c>
+      <c r="J59" s="3">
+        <v>126500</v>
+      </c>
+      <c r="K59" s="3">
         <v>91300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>188900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>89200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>325800</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2253,72 +2496,90 @@
       <c r="L60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>85734100</v>
+        <v>87282000</v>
       </c>
       <c r="E61" s="3">
-        <v>81246500</v>
+        <v>87282700</v>
       </c>
       <c r="F61" s="3">
-        <v>76390900</v>
+        <v>81553500</v>
       </c>
       <c r="G61" s="3">
-        <v>78013900</v>
+        <v>77284600</v>
       </c>
       <c r="H61" s="3">
-        <v>81052600</v>
+        <v>72665800</v>
       </c>
       <c r="I61" s="3">
+        <v>74209700</v>
+      </c>
+      <c r="J61" s="3">
+        <v>77100200</v>
+      </c>
+      <c r="K61" s="3">
         <v>71507000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>79476300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>75264300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>69006700</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>33406000</v>
+        <v>3365000</v>
       </c>
       <c r="E62" s="3">
-        <v>32008000</v>
+        <v>31819400</v>
       </c>
       <c r="F62" s="3">
-        <v>1096600</v>
+        <v>33393600</v>
       </c>
       <c r="G62" s="3">
-        <v>1103000</v>
+        <v>30737900</v>
       </c>
       <c r="H62" s="3">
-        <v>1016000</v>
+        <v>1043200</v>
       </c>
       <c r="I62" s="3">
+        <v>1049200</v>
+      </c>
+      <c r="J62" s="3">
+        <v>966400</v>
+      </c>
+      <c r="K62" s="3">
         <v>1052800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>936000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1052100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>885200</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2349,8 +2610,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2381,8 +2648,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2413,40 +2686,52 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>624992100</v>
+        <v>619398200</v>
       </c>
       <c r="E66" s="3">
-        <v>619587500</v>
+        <v>619444700</v>
       </c>
       <c r="F66" s="3">
-        <v>593144700</v>
+        <v>594876100</v>
       </c>
       <c r="G66" s="3">
-        <v>593394400</v>
+        <v>589732400</v>
       </c>
       <c r="H66" s="3">
-        <v>606363600</v>
+        <v>564221000</v>
       </c>
       <c r="I66" s="3">
+        <v>564458600</v>
+      </c>
+      <c r="J66" s="3">
+        <v>576795300</v>
+      </c>
+      <c r="K66" s="3">
         <v>593532400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>589102000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>586379900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>524525400</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2459,8 +2744,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2491,8 +2778,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2523,8 +2816,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2553,10 +2852,16 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
         <v>632000</v>
       </c>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2587,40 +2892,52 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>22488600</v>
+        <v>22028000</v>
       </c>
       <c r="E72" s="3">
-        <v>21895700</v>
+        <v>21612000</v>
       </c>
       <c r="F72" s="3">
-        <v>21152800</v>
+        <v>21406800</v>
       </c>
       <c r="G72" s="3">
-        <v>20293900</v>
+        <v>20842800</v>
       </c>
       <c r="H72" s="3">
-        <v>19831900</v>
+        <v>20121400</v>
       </c>
       <c r="I72" s="3">
+        <v>19304300</v>
+      </c>
+      <c r="J72" s="3">
+        <v>18864900</v>
+      </c>
+      <c r="K72" s="3">
         <v>19390500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>19353000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>18613800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>17836000</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2651,8 +2968,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2683,8 +3006,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2715,40 +3044,52 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>41914400</v>
+        <v>40907000</v>
       </c>
       <c r="E76" s="3">
-        <v>42007100</v>
+        <v>40259500</v>
       </c>
       <c r="F76" s="3">
-        <v>41713500</v>
+        <v>39885300</v>
       </c>
       <c r="G76" s="3">
-        <v>40887100</v>
+        <v>39973500</v>
       </c>
       <c r="H76" s="3">
-        <v>40906200</v>
+        <v>39679400</v>
       </c>
       <c r="I76" s="3">
+        <v>38893300</v>
+      </c>
+      <c r="J76" s="3">
+        <v>38911500</v>
+      </c>
+      <c r="K76" s="3">
         <v>39876800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>40502300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>37699300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>35072600</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2779,77 +3120,95 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43555</v>
+      </c>
+      <c r="F80" s="2">
         <v>43373</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43190</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43008</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>42825</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>42643</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>42460</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>42277</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>42094</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2177000</v>
+        <v>1870900</v>
       </c>
       <c r="E81" s="3">
-        <v>2351000</v>
+        <v>2135400</v>
       </c>
       <c r="F81" s="3">
-        <v>2472700</v>
+        <v>2070800</v>
       </c>
       <c r="G81" s="3">
-        <v>2059500</v>
+        <v>2236400</v>
       </c>
       <c r="H81" s="3">
-        <v>2102000</v>
+        <v>2352100</v>
       </c>
       <c r="I81" s="3">
+        <v>1959100</v>
+      </c>
+      <c r="J81" s="3">
+        <v>1999500</v>
+      </c>
+      <c r="K81" s="3">
         <v>1937100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>2820800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>2543200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>2812400</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2862,28 +3221,30 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>505200</v>
+        <v>298100</v>
       </c>
       <c r="E83" s="3">
-        <v>343100</v>
+        <v>288000</v>
       </c>
       <c r="F83" s="3">
-        <v>331100</v>
+        <v>480500</v>
       </c>
       <c r="G83" s="3">
-        <v>356600</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>5</v>
+        <v>326400</v>
+      </c>
+      <c r="H83" s="3">
+        <v>315000</v>
+      </c>
+      <c r="I83" s="3">
+        <v>339200</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>5</v>
@@ -2894,8 +3255,14 @@
       <c r="L83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2926,8 +3293,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2958,8 +3331,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2990,8 +3369,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3022,8 +3407,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3054,40 +3445,52 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1708600</v>
+        <v>-8165500</v>
       </c>
       <c r="E89" s="3">
-        <v>5766800</v>
+        <v>5103400</v>
       </c>
       <c r="F89" s="3">
-        <v>6287600</v>
+        <v>1123200</v>
       </c>
       <c r="G89" s="3">
-        <v>10725700</v>
+        <v>5987700</v>
       </c>
       <c r="H89" s="3">
-        <v>-420300</v>
+        <v>5981000</v>
       </c>
       <c r="I89" s="3">
+        <v>10202700</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-399800</v>
+      </c>
+      <c r="K89" s="3">
         <v>8090300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>1493500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>14051200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-2762400</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3100,8 +3503,10 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3114,26 +3519,32 @@
       <c r="F91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G91" s="3">
-        <v>-82800</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-106800</v>
+      <c r="G91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I91" s="3">
+        <v>-78700</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-101600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-131600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-142900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-86300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-341000</v>
       </c>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3164,8 +3575,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3196,40 +3613,52 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1479400</v>
+        <v>1463800</v>
       </c>
       <c r="E94" s="3">
-        <v>1596800</v>
+        <v>-1602400</v>
       </c>
       <c r="F94" s="3">
-        <v>-7863200</v>
+        <v>-1407200</v>
       </c>
       <c r="G94" s="3">
-        <v>-1214100</v>
+        <v>1519000</v>
       </c>
       <c r="H94" s="3">
-        <v>-9352400</v>
+        <v>-7479700</v>
       </c>
       <c r="I94" s="3">
+        <v>-1154900</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-8896400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-842600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-3277100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-3732500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-1581100</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3242,40 +3671,48 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1739700</v>
+        <v>-1500100</v>
       </c>
       <c r="E96" s="3">
-        <v>-1488600</v>
+        <v>-1508900</v>
       </c>
       <c r="F96" s="3">
-        <v>-1502000</v>
+        <v>-1654900</v>
       </c>
       <c r="G96" s="3">
-        <v>-1476600</v>
+        <v>-1416000</v>
       </c>
       <c r="H96" s="3">
-        <v>-1470900</v>
+        <v>-1428800</v>
       </c>
       <c r="I96" s="3">
+        <v>-1404600</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-1399200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1758100</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-1028000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-1676100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-1347400</v>
       </c>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3306,8 +3743,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3338,8 +3781,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3370,100 +3819,124 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>778300</v>
+        <v>-3693400</v>
       </c>
       <c r="E100" s="3">
-        <v>1075400</v>
+        <v>1835300</v>
       </c>
       <c r="F100" s="3">
-        <v>-2714700</v>
+        <v>740300</v>
       </c>
       <c r="G100" s="3">
-        <v>-2002200</v>
+        <v>1023000</v>
       </c>
       <c r="H100" s="3">
-        <v>6866300</v>
+        <v>-2582300</v>
       </c>
       <c r="I100" s="3">
+        <v>-1904600</v>
+      </c>
+      <c r="J100" s="3">
+        <v>6531500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-5481000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>2225800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-800300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>2133300</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1035800</v>
+        <v>1887100</v>
       </c>
       <c r="E101" s="3">
-        <v>1485800</v>
+        <v>922000</v>
       </c>
       <c r="F101" s="3">
-        <v>-706100</v>
+        <v>985300</v>
       </c>
       <c r="G101" s="3">
-        <v>-1166700</v>
+        <v>1413300</v>
       </c>
       <c r="H101" s="3">
-        <v>1144000</v>
+        <v>-671700</v>
       </c>
       <c r="I101" s="3">
+        <v>-1109800</v>
+      </c>
+      <c r="J101" s="3">
+        <v>1088200</v>
+      </c>
+      <c r="K101" s="3">
         <v>-2167800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>2257600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>2985800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>504300</v>
       </c>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2043300</v>
+        <v>-8508100</v>
       </c>
       <c r="E102" s="3">
-        <v>9924800</v>
+        <v>6258200</v>
       </c>
       <c r="F102" s="3">
-        <v>-5049400</v>
+        <v>1943600</v>
       </c>
       <c r="G102" s="3">
-        <v>6342700</v>
+        <v>9440800</v>
       </c>
       <c r="H102" s="3">
-        <v>-1762400</v>
+        <v>-4803200</v>
       </c>
       <c r="I102" s="3">
+        <v>6033400</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-1676400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-401200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>2699800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>12504300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-1705900</v>
       </c>
     </row>
